--- a/biology/Zoologie/Hocco_unicorne/Hocco_unicorne.xlsx
+++ b/biology/Zoologie/Hocco_unicorne/Hocco_unicorne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pauxi unicornis
 Le Hocco unicorne (Pauxi unicornis) est une espèce monotypique d'oiseau de la famille des Cracidae. Il a été découvert en 1939 dans le secteur du parc national Carrasco, au centre de la Bolivie.
@@ -512,7 +524,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la classification de référence (version 2.10, 2011) du Congrès ornithologique international, la sous-espèce Pauxi unicornis koepckeae a été séparée de cette espèce et est désormais considérée comme l'espèce à part entière Pauxi koepckeae, à la suite des travaux de Gastañaga et al. (2011).
 </t>
